--- a/src/main/resources/monitoradoresModelo (2).xlsx
+++ b/src/main/resources/monitoradoresModelo (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davi\IdeaProjects\Projeto_Estagio\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60F8C75-B311-405B-A404-7061114B046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5F200-C5EA-4015-98C4-B21C821337B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
